--- a/AutomationChallenge/target/classes/AutomationData.xlsx
+++ b/AutomationChallenge/target/classes/AutomationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kingslayer/Downloads/Selenium/NaveenHybridFramework/AutomationChallenge/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C12742B-35CD-D240-94AF-BBD7A509965F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C390C-AD08-0D4F-89C8-8BE32D3EE635}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{B0FAAB4E-894C-144F-A48F-4C27C18CF3C2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>City</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>York</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF97654-6383-D645-A7C1-1F6ACD9D0A34}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,6 +443,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
